--- a/Question List.xlsx
+++ b/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Series</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,12 +153,23 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>FirefoxProfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about:config
+FirefoxProfile profile = new FireFoxprofile();
+profile.setPreference("","");
+capability.setCapability(FireFoxDriver.Profile,profile);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +192,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,9 +220,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -508,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,6 +561,14 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Question List.xlsx
+++ b/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Series</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,12 +164,83 @@
 capability.setCapability(FireFoxDriver.Profile,profile);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gird Optional parameters:
+-port
+-host
+-timeout
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-maxSession
+-registerCycle
+-DPOOL_MAX=512 or larger</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the default port of hub:4444; default port of node:5555
+-host &lt;IP|Hostname&gt;:Usually not needed or determined, it is necessary for exotic netword/VPN
+-timeout 30 (300 is default)Help to clear client crashed without manual intervention
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-browser  Parameters allowed for -browser: browserName={android, chrome, firefox, htmlunit, internet explorer, iphone, opera} version={browser version} firefox_binary={path to executable binary} chrome_binary={path to executable binary} maxInstances={maximum number of browsers of this type} platform={WINDOWS, LINUX, MAC}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-maxSession(5 is default)The maximum number of browsers that can run in parallel on the node at same time
+-registerCycle how often in ms the node will register itself again
+Really large(node&gt;50) hub installations may need to increase jetty threads by setting DPOOL_MAX=512 or larger in java command line;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature file run…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +269,21 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -529,19 +615,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="36.375" customWidth="1"/>
     <col min="3" max="3" width="99.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="243" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="243">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,12 +649,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="66">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="162">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -597,7 +696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Question List.xlsx
+++ b/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Series</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>Feature file run…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File.separator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -668,6 +680,19 @@
     <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Question List.xlsx
+++ b/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Series</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,11 +240,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File.separator</t>
+    <t>File.separator; because the separator is differernt between Windows and Linux;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page loading performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Executing performance.timing, provides lots of data that can be used to measure the performance of website:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Page Load: Time needed to load the page (from navigationStart to loadEventEnd).
+Waiting: Waiting for response time (from requestStart to responseStart)
+Receiving: Time needed to download the response (from responseStart to responseEnd)
+DOM Processing: Time needed to build DOM (from responseEnd to loadEventStart
+DOMContentLoaded: Time needed to handle DOMContentLoaded event (from domContentLoadedEventStart to domContentLoadedEventEnd)
+onLoad: Time needed to handle onLoad event (from loadEventStart to loadEventEnd)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static bloclk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execute immediately when a class been loaded. And the static block only can be execute one time;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new interface(){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new one anonymous class to implement the interface.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drag element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Action(driver).dragAndDropBy(draggable,0,10).build.perform;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +339,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -627,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -687,12 +742,39 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="121.5">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
-        <v>11</v>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
